--- a/biology/Biochimie/Alpha-lactalbumine/Alpha-lactalbumine.xlsx
+++ b/biology/Biochimie/Alpha-lactalbumine/Alpha-lactalbumine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'α-lactalbumine est une protéine du lactosérum, présente à raison de 1,2 g/L dans le lait de vache. C'est une holoprotéine comportant 123 acides aminés, pour une masse de 14,2 kDa[5]. Ses 8 résidus cystéine engendrent la formation de 4 ponts disulfures. Elle possède une forte affinité pour le calcium.
-Le fragment  50-53 de l'α-lactalbulmine (Tyr-gly-leu-phe) est appelé α-lactorphine, c'est un peptide opioïde et inhibiteur de l'enzyme de conversion (hypotenseur)[6]. Son effet opioïde est toutefois très faible : il serait 300 fois plus faible que celui de la β-casomorphine 1-5[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'α-lactalbumine est une protéine du lactosérum, présente à raison de 1,2 g/L dans le lait de vache. C'est une holoprotéine comportant 123 acides aminés, pour une masse de 14,2 kDa. Ses 8 résidus cystéine engendrent la formation de 4 ponts disulfures. Elle possède une forte affinité pour le calcium.
+Le fragment  50-53 de l'α-lactalbulmine (Tyr-gly-leu-phe) est appelé α-lactorphine, c'est un peptide opioïde et inhibiteur de l'enzyme de conversion (hypotenseur). Son effet opioïde est toutefois très faible : il serait 300 fois plus faible que celui de la β-casomorphine 1-5.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Séquence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">EQLTKCEVFR ELKDLKGYGG VSLPEWVCTT FHTSGYDTEA IVENNGSTDY GLFQINNKIW CKNDQDPHSS NICNISCDKF 
 1        10         20         30         40         50         60         70         80
